--- a/sits/msit_kzinti.xlsx
+++ b/sits/msit_kzinti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="856">
   <si>
     <t>Designation</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>11-12P(6)/5-6P(3)</t>
+  </si>
+  <si>
+    <t>Y181F</t>
   </si>
   <si>
     <t>From CVA: 5
@@ -1697,6 +1700,9 @@
     <t>0/None</t>
   </si>
   <si>
+    <t>F&amp;E (subsumed)</t>
+  </si>
+  <si>
     <t>Tug Mission</t>
   </si>
   <si>
@@ -1759,7 +1765,7 @@
     </r>
   </si>
   <si>
-    <t>Pair of PFT pods, limit 2 pairs; scout, (2EW:2AF)(1EW:TugAF)</t>
+    <t>Pair of PFT pods, max 2 pairs; scout, (2EW:2AF)(1EW:TugAF)</t>
   </si>
   <si>
     <t>PTP</t>
@@ -4019,12 +4025,6 @@
       <sz val="9"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="9"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
       <family val="1"/>
@@ -4042,6 +4042,12 @@
       <name val="MS Gothic"/>
       <charset val="1"/>
       <family val="3"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="9"/>
     </font>
   </fonts>
@@ -4074,23 +4080,23 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
-      <top style="medium"/>
+      <top style="thick"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -4120,7 +4126,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -4129,11 +4135,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4145,11 +4151,11 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4157,7 +4163,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4165,15 +4171,15 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4185,31 +4191,23 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="165" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="166" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="166" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4217,7 +4215,7 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4229,23 +4227,23 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="168" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="168" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="167" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="167" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="3" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -4272,8 +4270,8 @@
   </sheetPr>
   <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A180" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A181" activeCellId="0" pane="topLeft" sqref="181:182"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E16" activeCellId="0" pane="topLeft" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4733,7 +4731,7 @@
       <c r="B15" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -4772,33 +4770,33 @@
         <v>82</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E16" s="7" t="n">
         <v>10</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>83</v>
+      <c r="H16" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" s="9" t="n">
         <v>4</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="17">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4813,13 +4811,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="18">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>30</v>
@@ -4828,33 +4826,33 @@
         <v>9</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H18" s="16" t="s">
         <v>91</v>
       </c>
+      <c r="H18" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="I18" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" s="9" t="n">
         <v>2.5</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="19">
       <c r="A19" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>30</v>
@@ -4863,7 +4861,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>56</v>
@@ -4878,18 +4876,18 @@
         <v>58</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="20">
       <c r="A20" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>38</v>
@@ -4898,33 +4896,33 @@
         <v>9</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>101</v>
+        <v>91</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J20" s="9" t="n">
         <v>2.5</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="21">
       <c r="A21" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>43</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>30</v>
@@ -4933,57 +4931,57 @@
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J21" s="9" t="n">
         <v>2.5</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="42.95" outlineLevel="0" r="22">
-      <c r="A22" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="18" t="n">
+      <c r="A22" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="17" t="n">
         <v>59</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="19" t="n">
+      <c r="E22" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H22" s="16" t="s">
+      <c r="F22" s="16" t="s">
         <v>112</v>
       </c>
+      <c r="G22" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="I22" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J22" s="20" t="n">
+        <v>114</v>
+      </c>
+      <c r="J22" s="19" t="n">
         <v>2.5</v>
       </c>
-      <c r="K22" s="17" t="s">
-        <v>93</v>
+      <c r="K22" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="23">
@@ -5022,43 +5020,43 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="63.95" outlineLevel="0" r="24">
-      <c r="A24" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="18" t="n">
+      <c r="A24" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="17" t="n">
         <v>60</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="19" t="n">
+      <c r="E24" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G24" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" s="21" t="s">
+      <c r="G24" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="J24" s="20" t="n">
+      <c r="I24" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="19" t="n">
         <v>2.5</v>
       </c>
-      <c r="K24" s="17" t="s">
-        <v>118</v>
+      <c r="K24" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="25">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -5073,48 +5071,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="26">
       <c r="A26" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B26" s="13" t="n">
         <v>47</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="11" t="n">
         <v>8</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J26" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="27">
       <c r="A27" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" s="11" t="n">
         <v>3</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>30</v>
@@ -5123,33 +5121,33 @@
         <v>8</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J27" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="28">
       <c r="A28" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>30</v>
@@ -5158,33 +5156,33 @@
         <v>9</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="J28" s="22" t="n">
+        <v>139</v>
+      </c>
+      <c r="J28" s="20" t="n">
         <v>2.25</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="29">
       <c r="A29" s="8" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" s="13" t="n">
         <v>66</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>38</v>
@@ -5193,33 +5191,33 @@
         <v>8</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J29" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="30">
       <c r="A30" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B30" s="11" t="n">
         <v>9</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>30</v>
@@ -5228,33 +5226,33 @@
         <v>8</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J30" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="31">
       <c r="A31" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B31" s="13" t="n">
         <v>37</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>66</v>
@@ -5263,103 +5261,103 @@
         <v>8</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J31" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="32">
       <c r="A32" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E32" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J32" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="33">
       <c r="A33" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C33" s="23" t="s">
         <v>156</v>
       </c>
+      <c r="C33" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="D33" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E33" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J33" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="34">
       <c r="A34" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>66</v>
@@ -5368,33 +5366,33 @@
         <v>8</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H34" s="16" t="s">
-        <v>166</v>
+        <v>125</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J34" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="35">
       <c r="A35" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>30</v>
@@ -5403,7 +5401,7 @@
         <v>8</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>56</v>
@@ -5418,21 +5416,21 @@
         <v>58</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="36">
       <c r="A36" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B36" s="6" t="n">
         <v>78</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E36" s="7" t="n">
         <v>8</v>
@@ -5441,65 +5439,65 @@
         <v>44</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H36" s="16" t="s">
-        <v>173</v>
+        <v>125</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J36" s="9" t="n">
         <v>2</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="37">
       <c r="A37" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B37" s="6" t="n">
         <v>79</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E37" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H37" s="16" t="s">
-        <v>179</v>
+        <v>125</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="J37" s="24" t="n">
+        <v>181</v>
+      </c>
+      <c r="J37" s="22" t="n">
         <v>2.25</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="38">
       <c r="A38" s="8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B38" s="13" t="n">
         <v>104</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>183</v>
+      <c r="C38" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>21</v>
@@ -5508,97 +5506,97 @@
         <v>8</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J38" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="39">
       <c r="A39" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B39" s="6" t="n">
         <v>106</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E39" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H39" s="16" t="s">
-        <v>188</v>
+        <v>125</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="J39" s="24" t="n">
+        <v>190</v>
+      </c>
+      <c r="J39" s="22" t="n">
         <v>2.25</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="40">
       <c r="A40" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B40" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="C40" s="23" t="s">
-        <v>192</v>
+      <c r="C40" s="21" t="s">
+        <v>193</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E40" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="16" t="s">
-        <v>194</v>
+        <v>125</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J40" s="24" t="n">
+        <v>196</v>
+      </c>
+      <c r="J40" s="22" t="n">
         <v>2.25</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="41">
       <c r="A41" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B41" s="13" t="n">
         <v>201</v>
@@ -5613,27 +5611,27 @@
         <v>9</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J41" s="12" t="n">
         <v>3</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="42">
       <c r="A42" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B42" s="6" t="n">
         <v>202</v>
@@ -5648,27 +5646,27 @@
         <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="16" t="s">
-        <v>204</v>
+        <v>125</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J42" s="9" t="n">
         <v>3</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="43">
       <c r="A43" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -5683,13 +5681,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="44">
       <c r="A44" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B44" s="13" t="n">
         <v>62</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>62</v>
@@ -5701,30 +5699,30 @@
         <v>63</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="J44" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="45">
       <c r="A45" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B45" s="6" t="n">
         <v>84</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>66</v>
@@ -5733,22 +5731,22 @@
         <v>9</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="J45" s="24" t="n">
+        <v>215</v>
+      </c>
+      <c r="J45" s="22" t="n">
         <v>1.75</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="46">
@@ -5788,13 +5786,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="47">
       <c r="A47" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B47" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="C47" s="23" t="s">
-        <v>217</v>
+      <c r="C47" s="21" t="s">
+        <v>218</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>66</v>
@@ -5803,33 +5801,33 @@
         <v>8</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>218</v>
+        <v>209</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J47" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="48">
       <c r="A48" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B48" s="6" t="n">
         <v>86</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>66</v>
@@ -5838,33 +5836,33 @@
         <v>8</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="16" t="s">
-        <v>222</v>
+        <v>209</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="J48" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="49">
       <c r="A49" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B49" s="6" t="n">
         <v>93</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>66</v>
@@ -5873,103 +5871,103 @@
         <v>8</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>226</v>
+        <v>209</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="J49" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="50">
       <c r="A50" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B50" s="6" t="n">
         <v>85</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E50" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H50" s="16" t="s">
-        <v>231</v>
+        <v>209</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J50" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="51">
       <c r="A51" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B51" s="6" t="n">
         <v>91</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E51" s="7" t="n">
         <v>8</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H51" s="16" t="s">
-        <v>235</v>
+        <v>209</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J51" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="52">
       <c r="A52" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B52" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="C52" s="23" t="s">
-        <v>238</v>
+      <c r="C52" s="21" t="s">
+        <v>239</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>66</v>
@@ -5978,36 +5976,36 @@
         <v>8</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H52" s="16" t="s">
-        <v>239</v>
+        <v>209</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J52" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="53">
       <c r="A53" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B53" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>243</v>
+      <c r="C53" s="21" t="s">
+        <v>244</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E53" s="7" t="n">
         <v>9</v>
@@ -6016,30 +6014,30 @@
         <v>74</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>244</v>
+        <v>209</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J53" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="54">
       <c r="A54" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B54" s="6" t="n">
         <v>89</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>248</v>
+      <c r="C54" s="21" t="s">
+        <v>249</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>66</v>
@@ -6048,132 +6046,132 @@
         <v>8</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="H54" s="16" t="s">
-        <v>249</v>
+        <v>209</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J54" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K54" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="42.95" outlineLevel="0" r="55">
+      <c r="A55" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="17" t="n">
+        <v>98</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="I55" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="J55" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.1" outlineLevel="0" r="56">
+      <c r="A56" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="J56" s="19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="42.95" outlineLevel="0" r="57">
+      <c r="A57" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B57" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I57" s="16" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="42.95" outlineLevel="0" r="55">
-      <c r="A55" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="B55" s="18" t="n">
-        <v>98</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E55" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="H55" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="I55" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="J55" s="20" t="n">
+      <c r="J57" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.1" outlineLevel="0" r="56">
-      <c r="A56" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="I56" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="J56" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="42.95" outlineLevel="0" r="57">
-      <c r="A57" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B57" s="18" t="n">
-        <v>88</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="H57" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="I57" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="J57" s="20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>265</v>
+      <c r="K57" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="58">
       <c r="A58" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6188,13 +6186,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="59">
       <c r="A59" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B59" s="13" t="n">
         <v>19</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>30</v>
@@ -6203,68 +6201,68 @@
         <v>6</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="J59" s="22" t="n">
+        <v>272</v>
+      </c>
+      <c r="J59" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="60">
       <c r="A60" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B60" s="13" t="n">
         <v>31</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E60" s="11" t="n">
         <v>6</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J60" s="22" t="n">
+        <v>277</v>
+      </c>
+      <c r="J60" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="61">
       <c r="A61" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B61" s="13" t="n">
         <v>28</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>30</v>
@@ -6273,33 +6271,33 @@
         <v>6</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="J61" s="22" t="n">
+        <v>282</v>
+      </c>
+      <c r="J61" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="62">
       <c r="A62" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B62" s="13" t="n">
         <v>34</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>62</v>
@@ -6308,33 +6306,33 @@
         <v>6</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J62" s="22" t="n">
+        <v>287</v>
+      </c>
+      <c r="J62" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="63">
       <c r="A63" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B63" s="13" t="n">
         <v>32</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>62</v>
@@ -6343,33 +6341,33 @@
         <v>6</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="J63" s="22" t="n">
+        <v>292</v>
+      </c>
+      <c r="J63" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="64">
       <c r="A64" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B64" s="13" t="n">
         <v>54</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>62</v>
@@ -6378,33 +6376,33 @@
         <v>6</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="J64" s="22" t="n">
+        <v>287</v>
+      </c>
+      <c r="J64" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="65">
       <c r="A65" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B65" s="13" t="n">
         <v>27</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>30</v>
@@ -6416,19 +6414,19 @@
         <v>63</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="J65" s="22" t="n">
+        <v>301</v>
+      </c>
+      <c r="J65" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="66">
@@ -6468,13 +6466,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="67">
       <c r="A67" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>62</v>
@@ -6498,18 +6496,18 @@
         <v>58</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="68">
       <c r="A68" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>30</v>
@@ -6533,21 +6531,21 @@
         <v>58</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="69">
       <c r="A69" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B69" s="6" t="n">
         <v>80</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E69" s="7" t="n">
         <v>6</v>
@@ -6556,65 +6554,65 @@
         <v>63</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H69" s="16" t="s">
-        <v>309</v>
+        <v>270</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J69" s="24" t="n">
+        <v>311</v>
+      </c>
+      <c r="J69" s="22" t="n">
         <v>1.25</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="70">
       <c r="A70" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B70" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="C70" s="23" t="s">
-        <v>312</v>
+      <c r="C70" s="21" t="s">
+        <v>313</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E70" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H70" s="16" t="s">
-        <v>313</v>
+        <v>270</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="J70" s="24" t="n">
+        <v>315</v>
+      </c>
+      <c r="J70" s="22" t="n">
         <v>1.25</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="71">
       <c r="A71" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B71" s="13" t="n">
         <v>105</v>
       </c>
-      <c r="C71" s="25" t="s">
-        <v>317</v>
+      <c r="C71" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>21</v>
@@ -6623,33 +6621,33 @@
         <v>6</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="J71" s="22" t="n">
+        <v>277</v>
+      </c>
+      <c r="J71" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="72">
       <c r="A72" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B72" s="6" t="n">
         <v>27</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>38</v>
@@ -6658,33 +6656,33 @@
         <v>6</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>321</v>
+        <v>270</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="J72" s="24" t="n">
+        <v>323</v>
+      </c>
+      <c r="J72" s="22" t="n">
         <v>1.25</v>
       </c>
       <c r="K72" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="73">
       <c r="A73" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B73" s="13" t="n">
         <v>33</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>30</v>
@@ -6693,33 +6691,33 @@
         <v>6</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="J73" s="22" t="n">
+        <v>327</v>
+      </c>
+      <c r="J73" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="74">
       <c r="A74" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B74" s="6" t="n">
         <v>203</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>38</v>
@@ -6728,33 +6726,33 @@
         <v>7</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J74" s="9" t="n">
         <v>2.5</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="75">
       <c r="A75" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>38</v>
@@ -6763,27 +6761,27 @@
         <v>7</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J75" s="9" t="n">
         <v>2.5</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="76">
       <c r="A76" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6798,13 +6796,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="77">
       <c r="A77" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B77" s="7" t="n">
         <v>5</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>30</v>
@@ -6813,33 +6811,33 @@
         <v>6</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="I77" s="16" t="s">
         <v>343</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="J77" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="78">
       <c r="A78" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B78" s="13" t="n">
         <v>63</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>38</v>
@@ -6848,33 +6846,33 @@
         <v>6</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J78" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="79">
       <c r="A79" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>38</v>
@@ -6883,33 +6881,33 @@
         <v>6</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="J79" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="80">
       <c r="A80" s="8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>30</v>
@@ -6918,7 +6916,7 @@
         <v>6</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>56</v>
@@ -6933,18 +6931,18 @@
         <v>58</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="81">
       <c r="A81" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B81" s="13" t="n">
         <v>10</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>30</v>
@@ -6953,33 +6951,33 @@
         <v>6</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J81" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="82">
       <c r="A82" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B82" s="13" t="n">
         <v>83</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>30</v>
@@ -6988,27 +6986,27 @@
         <v>6</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J82" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="83">
       <c r="A83" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -7023,13 +7021,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="84">
       <c r="A84" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B84" s="13" t="n">
         <v>12</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>30</v>
@@ -7038,33 +7036,33 @@
         <v>6</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J84" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="85">
       <c r="A85" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B85" s="13" t="n">
         <v>53</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>30</v>
@@ -7073,27 +7071,27 @@
         <v>8</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J85" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="86">
       <c r="A86" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -7108,24 +7106,24 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="87">
       <c r="A87" s="8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>30</v>
+        <v>386</v>
       </c>
       <c r="E87" s="10"/>
       <c r="F87" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I87" s="13" t="n">
         <v>0</v>
@@ -7137,48 +7135,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="88">
       <c r="A88" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B88" s="6" t="n">
         <v>15</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>62</v>
+        <v>390</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E88" s="6" t="n">
         <v>2</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H88" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J88" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="89">
       <c r="A89" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>30</v>
@@ -7187,68 +7185,68 @@
         <v>0</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J89" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="90">
       <c r="A90" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B90" s="6" t="n">
         <v>40</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>62</v>
+        <v>400</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E90" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H90" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J90" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="91">
       <c r="A91" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B91" s="6" t="n">
         <v>112</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>38</v>
@@ -7257,22 +7255,22 @@
         <v>0</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H91" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J91" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="92">
@@ -7312,13 +7310,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="93">
       <c r="A93" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B93" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="C93" s="23" t="s">
-        <v>405</v>
+      <c r="C93" s="21" t="s">
+        <v>407</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>38</v>
@@ -7327,33 +7325,33 @@
         <v>1</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H93" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J93" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="94">
       <c r="A94" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B94" s="6" t="n">
         <v>110</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>38</v>
@@ -7362,33 +7360,33 @@
         <v>1</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H94" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="J94" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="K94" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="95">
       <c r="A95" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B95" s="13" t="n">
         <v>17</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>62</v>
@@ -7397,68 +7395,68 @@
         <v>0</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H95" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J95" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K95" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="96">
       <c r="A96" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B96" s="13" t="n">
         <v>38</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E96" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H96" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J96" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K96" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="97">
       <c r="A97" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B97" s="13" t="n">
         <v>111</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>38</v>
@@ -7467,62 +7465,62 @@
         <v>0</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H97" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="J97" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="98">
       <c r="A98" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B98" s="13" t="n">
         <v>14</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E98" s="13" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H98" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J98" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K98" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="99">
       <c r="A99" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -7537,13 +7535,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="100">
       <c r="A100" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B100" s="13" t="n">
         <v>69</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>38</v>
@@ -7552,33 +7550,33 @@
         <v>5</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="J100" s="22" t="n">
+        <v>436</v>
+      </c>
+      <c r="J100" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="101">
       <c r="A101" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B101" s="13" t="n">
         <v>69</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>38</v>
@@ -7587,33 +7585,33 @@
         <v>5</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="J101" s="22" t="n">
+        <v>441</v>
+      </c>
+      <c r="J101" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="102">
       <c r="A102" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B102" s="13" t="n">
         <v>69</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>38</v>
@@ -7622,27 +7620,27 @@
         <v>5</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="J102" s="22" t="n">
+        <v>441</v>
+      </c>
+      <c r="J102" s="20" t="n">
         <v>1.25</v>
       </c>
       <c r="K102" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="103">
       <c r="A103" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -7657,13 +7655,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="104">
       <c r="A104" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B104" s="13" t="n">
         <v>44</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>62</v>
@@ -7675,30 +7673,30 @@
         <v>63</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="J104" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="105">
       <c r="A105" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B105" s="13" t="n">
         <v>50</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>62</v>
@@ -7710,30 +7708,30 @@
         <v>63</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J105" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="106">
       <c r="A106" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B106" s="13" t="n">
         <v>65</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>62</v>
@@ -7742,33 +7740,33 @@
         <v>4</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J106" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="107">
       <c r="A107" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B107" s="13" t="n">
         <v>49</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>62</v>
@@ -7780,30 +7778,30 @@
         <v>63</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J107" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="108">
       <c r="A108" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B108" s="13" t="n">
         <v>67</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>38</v>
@@ -7812,33 +7810,33 @@
         <v>5</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J108" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="109">
       <c r="A109" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B109" s="6" t="n">
         <v>71</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>38</v>
@@ -7850,24 +7848,24 @@
         <v>67</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="H109" s="16" t="s">
-        <v>470</v>
+        <v>448</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>472</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J109" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K109" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="110">
       <c r="A110" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="4"/>
@@ -7882,13 +7880,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="111">
       <c r="A111" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B111" s="6" t="n">
         <v>35</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>30</v>
@@ -7897,103 +7895,103 @@
         <v>4</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="I111" s="16" t="s">
-        <v>343</v>
+        <v>477</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="J111" s="9" t="n">
         <v>1.5</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="112">
       <c r="A112" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B112" s="13" t="n">
         <v>82</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E112" s="11" t="n">
         <v>4</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J112" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="K112" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="113">
       <c r="A113" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E113" s="11" t="n">
         <v>4</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="J113" s="22" t="n">
+        <v>487</v>
+      </c>
+      <c r="J113" s="20" t="n">
         <v>1.5</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="114">
       <c r="A114" s="8" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B114" s="13" t="n">
         <v>56</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D114" s="8" t="s">
         <v>38</v>
@@ -8002,33 +8000,33 @@
         <v>4</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J114" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="K114" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="115">
       <c r="A115" s="8" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B115" s="13" t="n">
         <v>22</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>30</v>
@@ -8037,27 +8035,27 @@
         <v>6</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J115" s="12" t="n">
         <v>1.5</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="116">
       <c r="A116" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="4"/>
@@ -8072,13 +8070,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="117">
       <c r="A117" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B117" s="13" t="n">
         <v>46</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>38</v>
@@ -8087,33 +8085,33 @@
         <v>3</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="J117" s="22" t="n">
+        <v>504</v>
+      </c>
+      <c r="J117" s="20" t="n">
         <v>0.75</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="118">
       <c r="A118" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="C118" s="23" t="s">
-        <v>506</v>
+        <v>507</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>508</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>38</v>
@@ -8122,33 +8120,33 @@
         <v>3</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>507</v>
+        <v>502</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>509</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="J118" s="24" t="n">
+        <v>510</v>
+      </c>
+      <c r="J118" s="22" t="n">
         <v>0.75</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="119">
       <c r="A119" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B119" s="6" t="n">
         <v>205</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>38</v>
@@ -8157,27 +8155,27 @@
         <v>5</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="H119" s="16" t="s">
-        <v>511</v>
+        <v>502</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>513</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="J119" s="24" t="n">
+        <v>514</v>
+      </c>
+      <c r="J119" s="22" t="n">
         <v>1.75</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="120">
       <c r="A120" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="4"/>
@@ -8192,13 +8190,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="121">
       <c r="A121" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B121" s="11" t="n">
         <v>8</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>30</v>
@@ -8207,33 +8205,33 @@
         <v>3</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="J121" s="27" t="n">
+        <v>520</v>
+      </c>
+      <c r="J121" s="25" t="n">
         <v>0.625</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="122">
       <c r="A122" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B122" s="13" t="n">
         <v>18</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>30</v>
@@ -8242,22 +8240,22 @@
         <v>4</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="J122" s="27" t="n">
+        <v>524</v>
+      </c>
+      <c r="J122" s="25" t="n">
         <v>0.625</v>
       </c>
       <c r="K122" s="8" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="123">
@@ -8297,13 +8295,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="124">
       <c r="A124" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B124" s="13" t="n">
         <v>64</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>62</v>
@@ -8312,33 +8310,33 @@
         <v>3</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="J124" s="27" t="n">
+        <v>530</v>
+      </c>
+      <c r="J124" s="25" t="n">
         <v>0.625</v>
       </c>
       <c r="K124" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="125">
       <c r="A125" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B125" s="13" t="n">
         <v>36</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D125" s="8" t="s">
         <v>62</v>
@@ -8347,33 +8345,33 @@
         <v>3</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J125" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="126">
       <c r="A126" s="8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B126" s="13" t="n">
         <v>23</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>30</v>
@@ -8382,68 +8380,68 @@
         <v>3</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="J126" s="27" t="n">
+        <v>539</v>
+      </c>
+      <c r="J126" s="25" t="n">
         <v>0.625</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="127">
       <c r="A127" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B127" s="6" t="n">
         <v>70</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E127" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J127" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="128">
       <c r="A128" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B128" s="6" t="n">
         <v>107</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>66</v>
@@ -8452,68 +8450,68 @@
         <v>3</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="J128" s="28" t="n">
+        <v>530</v>
+      </c>
+      <c r="J128" s="26" t="n">
         <v>0.625</v>
       </c>
       <c r="K128" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="129">
       <c r="A129" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B129" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="C129" s="23" t="s">
-        <v>550</v>
+      <c r="C129" s="21" t="s">
+        <v>552</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E129" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="H129" s="16" t="s">
-        <v>551</v>
+        <v>518</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>553</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="J129" s="28" t="n">
+        <v>554</v>
+      </c>
+      <c r="J129" s="26" t="n">
         <v>0.625</v>
       </c>
       <c r="K129" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="130">
       <c r="A130" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B130" s="13" t="n">
         <v>20</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>30</v>
@@ -8525,30 +8523,30 @@
         <v>31</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="J130" s="27" t="n">
+        <v>524</v>
+      </c>
+      <c r="J130" s="25" t="n">
         <v>0.625</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="131">
       <c r="A131" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B131" s="13" t="n">
         <v>68</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>38</v>
@@ -8560,112 +8558,112 @@
         <v>31</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="J131" s="27" t="n">
+        <v>561</v>
+      </c>
+      <c r="J131" s="25" t="n">
         <v>0.625</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="132">
       <c r="A132" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E132" s="7" t="n">
         <v>4</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="J132" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K132" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="53.1" outlineLevel="0" r="133">
-      <c r="A133" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="B133" s="18" t="n">
+      <c r="A133" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="B133" s="17" t="n">
         <v>204</v>
       </c>
-      <c r="C133" s="26" t="s">
-        <v>568</v>
-      </c>
-      <c r="D133" s="17" t="s">
+      <c r="C133" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="D133" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E133" s="19" t="n">
+      <c r="E133" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F133" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G133" s="17" t="s">
-        <v>516</v>
-      </c>
-      <c r="H133" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="I133" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="J133" s="29" t="n">
+      <c r="F133" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="J133" s="27" t="n">
         <v>1.75</v>
       </c>
       <c r="K133" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="134">
-      <c r="A134" s="30" t="s">
-        <v>572</v>
-      </c>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
-      <c r="I134" s="30"/>
-      <c r="J134" s="30"/>
-      <c r="K134" s="30"/>
+      <c r="A134" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="B134" s="28"/>
+      <c r="C134" s="28"/>
+      <c r="D134" s="28"/>
+      <c r="E134" s="28"/>
+      <c r="F134" s="28"/>
+      <c r="G134" s="28"/>
+      <c r="H134" s="28"/>
+      <c r="I134" s="28"/>
+      <c r="J134" s="28"/>
+      <c r="K134" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="135">
       <c r="A135" s="8" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C135" s="14" t="s">
         <v>17</v>
@@ -8677,33 +8675,33 @@
         <v>0</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H135" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J135" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="136">
       <c r="A136" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>38</v>
@@ -8712,48 +8710,48 @@
         <v>0</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J136" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="137">
-      <c r="A137" s="30" t="s">
-        <v>581</v>
-      </c>
-      <c r="B137" s="30"/>
-      <c r="C137" s="30"/>
-      <c r="D137" s="30"/>
-      <c r="E137" s="30"/>
-      <c r="F137" s="30"/>
-      <c r="G137" s="30"/>
-      <c r="H137" s="30"/>
-      <c r="I137" s="30"/>
-      <c r="J137" s="30"/>
-      <c r="K137" s="30"/>
+      <c r="A137" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="B137" s="28"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="28"/>
+      <c r="E137" s="28"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="28"/>
+      <c r="H137" s="28"/>
+      <c r="I137" s="28"/>
+      <c r="J137" s="28"/>
+      <c r="K137" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="138">
       <c r="A138" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B138" s="13" t="n">
         <v>22</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>62</v>
@@ -8762,33 +8760,33 @@
         <v>6</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H138" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I138" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J138" s="12" t="n">
         <v>2</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="139">
       <c r="A139" s="5" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>62</v>
@@ -8797,68 +8795,68 @@
         <v>0</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H139" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="J139" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="K139" s="5" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="140">
       <c r="A140" s="5" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E140" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="J140" s="24" t="n">
+        <v>597</v>
+      </c>
+      <c r="J140" s="22" t="n">
         <v>0.75</v>
       </c>
       <c r="K140" s="5" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="141">
       <c r="A141" s="8" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>62</v>
@@ -8867,42 +8865,42 @@
         <v>0</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J141" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K141" s="5" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="142">
-      <c r="A142" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="B142" s="30"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="30"/>
-      <c r="E142" s="30"/>
-      <c r="F142" s="30"/>
-      <c r="G142" s="30"/>
-      <c r="H142" s="30"/>
-      <c r="I142" s="30"/>
-      <c r="J142" s="30"/>
-      <c r="K142" s="30"/>
+      <c r="A142" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="B142" s="28"/>
+      <c r="C142" s="28"/>
+      <c r="D142" s="28"/>
+      <c r="E142" s="28"/>
+      <c r="F142" s="28"/>
+      <c r="G142" s="28"/>
+      <c r="H142" s="28"/>
+      <c r="I142" s="28"/>
+      <c r="J142" s="28"/>
+      <c r="K142" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="143">
       <c r="A143" s="8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -8916,29 +8914,29 @@
       <c r="K143" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="144">
-      <c r="A144" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="B144" s="30"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="30"/>
-      <c r="E144" s="30"/>
-      <c r="F144" s="30"/>
-      <c r="G144" s="30"/>
-      <c r="H144" s="30"/>
-      <c r="I144" s="30"/>
-      <c r="J144" s="30"/>
-      <c r="K144" s="30"/>
+      <c r="A144" s="28" t="s">
+        <v>603</v>
+      </c>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="28"/>
+      <c r="E144" s="28"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="28"/>
+      <c r="H144" s="28"/>
+      <c r="I144" s="28"/>
+      <c r="J144" s="28"/>
+      <c r="K144" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="145">
       <c r="A145" s="8" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B145" s="13" t="n">
         <v>62</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>66</v>
@@ -8947,33 +8945,33 @@
         <v>0</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H145" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="J145" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K145" s="8" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="146">
       <c r="A146" s="8" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B146" s="13" t="n">
         <v>19</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>62</v>
@@ -8982,33 +8980,33 @@
         <v>0</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H146" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J146" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K146" s="8" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="147">
       <c r="A147" s="8" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B147" s="13" t="n">
         <v>25</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>30</v>
@@ -9017,33 +9015,33 @@
         <v>0</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G147" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J147" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K147" s="8" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="148">
       <c r="A148" s="8" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>38</v>
@@ -9052,33 +9050,33 @@
         <v>0</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H148" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="J148" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K148" s="8" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="149">
       <c r="A149" s="5" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>38</v>
@@ -9087,33 +9085,33 @@
         <v>6</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="J149" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K149" s="8" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="150">
       <c r="A150" s="8" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>62</v>
@@ -9122,22 +9120,22 @@
         <v>6</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G150" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H150" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J150" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K150" s="8" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="151">
@@ -9177,48 +9175,48 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="152">
       <c r="A152" s="5" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E152" s="7" t="n">
         <v>6</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="J152" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K152" s="8" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="153">
       <c r="A153" s="5" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B153" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="C153" s="23" t="s">
-        <v>638</v>
+      <c r="C153" s="21" t="s">
+        <v>640</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>38</v>
@@ -9227,33 +9225,33 @@
         <v>6</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="H153" s="16" t="s">
-        <v>640</v>
+        <v>607</v>
+      </c>
+      <c r="H153" s="8" t="s">
+        <v>642</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="J153" s="9" t="n">
         <v>1</v>
       </c>
       <c r="K153" s="5" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="154">
       <c r="A154" s="8" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D154" s="8" t="s">
         <v>38</v>
@@ -9262,48 +9260,48 @@
         <v>6</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G154" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H154" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J154" s="12" t="n">
         <v>1</v>
       </c>
       <c r="K154" s="8" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="155">
-      <c r="A155" s="30" t="s">
-        <v>648</v>
-      </c>
-      <c r="B155" s="30"/>
-      <c r="C155" s="30"/>
-      <c r="D155" s="30"/>
-      <c r="E155" s="30"/>
-      <c r="F155" s="30"/>
-      <c r="G155" s="30"/>
-      <c r="H155" s="30"/>
-      <c r="I155" s="30"/>
-      <c r="J155" s="30"/>
-      <c r="K155" s="30"/>
+      <c r="A155" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="B155" s="28"/>
+      <c r="C155" s="28"/>
+      <c r="D155" s="28"/>
+      <c r="E155" s="28"/>
+      <c r="F155" s="28"/>
+      <c r="G155" s="28"/>
+      <c r="H155" s="28"/>
+      <c r="I155" s="28"/>
+      <c r="J155" s="28"/>
+      <c r="K155" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="156">
       <c r="A156" s="8" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B156" s="13" t="n">
         <v>18</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D156" s="8" t="s">
         <v>62</v>
@@ -9312,33 +9310,33 @@
         <v>0</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G156" s="8" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H156" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J156" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K156" s="8" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="157">
       <c r="A157" s="8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="D157" s="8" t="s">
         <v>38</v>
@@ -9347,33 +9345,33 @@
         <v>0</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H157" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J157" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K157" s="8" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="158">
       <c r="A158" s="5" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>38</v>
@@ -9382,33 +9380,33 @@
         <v>3</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="J158" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="K158" s="8" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="159">
       <c r="A159" s="8" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D159" s="8" t="s">
         <v>62</v>
@@ -9417,68 +9415,68 @@
         <v>3</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G159" s="8" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H159" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I159" s="8" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="J159" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K159" s="8" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="160">
       <c r="A160" s="5" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E160" s="7" t="n">
         <v>3</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J160" s="9" t="n">
         <v>0.5</v>
       </c>
       <c r="K160" s="8" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="161">
       <c r="A161" s="8" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D161" s="8" t="s">
         <v>38</v>
@@ -9487,48 +9485,48 @@
         <v>3</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="I161" s="8" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="J161" s="12" t="n">
         <v>0.5</v>
       </c>
       <c r="K161" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="162">
-      <c r="A162" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="30"/>
-      <c r="E162" s="30"/>
-      <c r="F162" s="30"/>
-      <c r="G162" s="30"/>
-      <c r="H162" s="30"/>
-      <c r="I162" s="30"/>
-      <c r="J162" s="30"/>
-      <c r="K162" s="30"/>
+      <c r="A162" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="B162" s="28"/>
+      <c r="C162" s="28"/>
+      <c r="D162" s="28"/>
+      <c r="E162" s="28"/>
+      <c r="F162" s="28"/>
+      <c r="G162" s="28"/>
+      <c r="H162" s="28"/>
+      <c r="I162" s="28"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="163">
       <c r="A163" s="8" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B163" s="11" t="n">
         <v>5</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D163" s="8" t="s">
         <v>30</v>
@@ -9537,33 +9535,33 @@
         <v>0</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G163" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H163" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J163" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K163" s="8" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="164">
       <c r="A164" s="8" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>62</v>
@@ -9572,33 +9570,33 @@
         <v>0</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I164" s="16" t="s">
-        <v>691</v>
+      <c r="I164" s="8" t="s">
+        <v>693</v>
       </c>
       <c r="J164" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K164" s="5" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="165">
       <c r="A165" s="5" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B165" s="7" t="n">
         <v>8</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>66</v>
@@ -9607,33 +9605,33 @@
         <v>0</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H165" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J165" s="9" t="n">
         <v>0.2</v>
       </c>
       <c r="K165" s="8" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="166">
       <c r="A166" s="5" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B166" s="6" t="n">
         <v>67</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>66</v>
@@ -9642,33 +9640,33 @@
         <v>3</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="H166" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="J166" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K166" s="16" t="s">
-        <v>702</v>
+      <c r="K166" s="8" t="s">
+        <v>704</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="167">
       <c r="A167" s="5" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B167" s="6" t="n">
         <v>33</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>62</v>
@@ -9677,33 +9675,33 @@
         <v>0</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G167" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H167" s="16" t="s">
-        <v>706</v>
+      <c r="H167" s="8" t="s">
+        <v>708</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="J167" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K167" s="5" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="168">
       <c r="A168" s="5" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>66</v>
@@ -9712,33 +9710,33 @@
         <v>0</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="J168" s="7" t="n">
         <v>0</v>
       </c>
       <c r="K168" s="8" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="169">
       <c r="A169" s="5" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B169" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="C169" s="25" t="s">
-        <v>714</v>
+      <c r="C169" s="23" t="s">
+        <v>716</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>66</v>
@@ -9747,33 +9745,33 @@
         <v>6</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="H169" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="J169" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K169" s="8" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="170">
       <c r="A170" s="8" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B170" s="13" t="n">
         <v>20</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D170" s="8" t="s">
         <v>38</v>
@@ -9782,33 +9780,33 @@
         <v>0</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H170" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I170" s="8" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="J170" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K170" s="8" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="171">
       <c r="A171" s="5" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="C171" s="25" t="s">
-        <v>724</v>
+        <v>725</v>
+      </c>
+      <c r="C171" s="23" t="s">
+        <v>726</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>62</v>
@@ -9817,48 +9815,48 @@
         <v>6</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>56</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J171" s="5" t="s">
         <v>58</v>
       </c>
       <c r="K171" s="5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="172">
-      <c r="A172" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30"/>
-      <c r="I172" s="30"/>
-      <c r="J172" s="30"/>
-      <c r="K172" s="30"/>
+      <c r="A172" s="28" t="s">
+        <v>729</v>
+      </c>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="28"/>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
+      <c r="H172" s="28"/>
+      <c r="I172" s="28"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="173">
       <c r="A173" s="8" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B173" s="13" t="n">
         <v>10</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D173" s="8" t="s">
         <v>30</v>
@@ -9867,33 +9865,33 @@
         <v>0</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G173" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H173" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I173" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="J173" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K173" s="8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="174">
       <c r="A174" s="8" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B174" s="13" t="n">
         <v>10</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D174" s="8" t="s">
         <v>62</v>
@@ -9902,68 +9900,68 @@
         <v>0</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G174" s="8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H174" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="I174" s="8" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="J174" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K174" s="8" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="175">
       <c r="A175" s="5" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E175" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J175" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K175" s="5" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="176">
       <c r="A176" s="5" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>38</v>
@@ -9972,22 +9970,22 @@
         <v>0</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="J176" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K176" s="5" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="177">
@@ -10026,29 +10024,29 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="178">
-      <c r="A178" s="30" t="s">
-        <v>748</v>
-      </c>
-      <c r="B178" s="30"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="30"/>
-      <c r="E178" s="30"/>
-      <c r="F178" s="30"/>
-      <c r="G178" s="30"/>
-      <c r="H178" s="30"/>
-      <c r="I178" s="30"/>
-      <c r="J178" s="30"/>
-      <c r="K178" s="30"/>
+      <c r="A178" s="28" t="s">
+        <v>750</v>
+      </c>
+      <c r="B178" s="28"/>
+      <c r="C178" s="28"/>
+      <c r="D178" s="28"/>
+      <c r="E178" s="28"/>
+      <c r="F178" s="28"/>
+      <c r="G178" s="28"/>
+      <c r="H178" s="28"/>
+      <c r="I178" s="28"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="179">
       <c r="A179" s="8" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>62</v>
@@ -10057,33 +10055,33 @@
         <v>8</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G179" s="8" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="H179" s="8" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="I179" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J179" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K179" s="8" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="180">
       <c r="A180" s="5" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B180" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="C180" s="23" t="s">
-        <v>756</v>
+      <c r="C180" s="21" t="s">
+        <v>758</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>30</v>
@@ -10092,33 +10090,33 @@
         <v>9</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="H180" s="16" t="s">
-        <v>758</v>
+        <v>759</v>
+      </c>
+      <c r="H180" s="8" t="s">
+        <v>760</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J180" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K180" s="5" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="181">
       <c r="A181" s="8" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B181" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="C181" s="25" t="s">
-        <v>384</v>
+      <c r="C181" s="23" t="s">
+        <v>385</v>
       </c>
       <c r="D181" s="8" t="s">
         <v>30</v>
@@ -10127,33 +10125,33 @@
         <v>0</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G181" s="8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H181" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I181" s="8" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="J181" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K181" s="8" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="182">
       <c r="A182" s="8" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B182" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="C182" s="25" t="s">
-        <v>764</v>
+      <c r="C182" s="23" t="s">
+        <v>766</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>30</v>
@@ -10162,33 +10160,33 @@
         <v>6</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="H182" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J182" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K182" s="8" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="183">
       <c r="A183" s="8" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B183" s="11" t="n">
         <v>4</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>38</v>
@@ -10197,103 +10195,103 @@
         <v>0</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="G183" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H183" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I183" s="8" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="J183" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="184">
       <c r="A184" s="5" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E184" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="J184" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K184" s="5" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="185">
       <c r="A185" s="8" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E185" s="11" t="n">
         <v>0</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G185" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H185" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="J185" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K185" s="8" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="186">
       <c r="A186" s="5" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>66</v>
@@ -10302,33 +10300,33 @@
         <v>9</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="H186" s="8" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="J186" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K186" s="5" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="187">
-      <c r="A187" s="16" t="s">
-        <v>784</v>
+      <c r="A187" s="8" t="s">
+        <v>786</v>
       </c>
       <c r="B187" s="6" t="n">
         <v>17</v>
       </c>
       <c r="C187" s="15" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>38</v>
@@ -10337,33 +10335,33 @@
         <v>0</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H187" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="J187" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="188">
       <c r="A188" s="8" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="B188" s="13" t="n">
         <v>16</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D188" s="8" t="s">
         <v>38</v>
@@ -10372,33 +10370,33 @@
         <v>0</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H188" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I188" s="8" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="J188" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K188" s="8" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="189">
       <c r="A189" s="5" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B189" s="6" t="n">
         <v>202</v>
       </c>
-      <c r="C189" s="23" t="s">
-        <v>793</v>
+      <c r="C189" s="21" t="s">
+        <v>795</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>38</v>
@@ -10407,68 +10405,68 @@
         <v>10</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="H189" s="16" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>797</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J189" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K189" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="190">
       <c r="A190" s="5" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E190" s="7" t="n">
         <v>9</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="H190" s="16" t="s">
-        <v>800</v>
+        <v>754</v>
+      </c>
+      <c r="H190" s="8" t="s">
+        <v>802</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J190" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="191">
       <c r="A191" s="5" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="B191" s="6" t="n">
         <v>201</v>
       </c>
-      <c r="C191" s="25" t="s">
-        <v>802</v>
+      <c r="C191" s="23" t="s">
+        <v>804</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>38</v>
@@ -10477,83 +10475,83 @@
         <v>11</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="H191" s="16" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="H191" s="8" t="s">
+        <v>806</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J191" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="63.95" outlineLevel="0" r="192">
-      <c r="A192" s="17" t="s">
-        <v>805</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>806</v>
-      </c>
-      <c r="C192" s="23" t="s">
+      <c r="A192" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="D192" s="17" t="s">
+      <c r="B192" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="C192" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="D192" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E192" s="19" t="n">
+      <c r="E192" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F192" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G192" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="H192" s="16" t="s">
-        <v>808</v>
-      </c>
-      <c r="I192" s="17" t="s">
+      <c r="F192" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="G192" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="J192" s="20" t="n">
+      <c r="H192" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="I192" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="J192" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="K192" s="17" t="s">
-        <v>809</v>
+      <c r="K192" s="16" t="s">
+        <v>811</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="193">
-      <c r="A193" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="B193" s="30"/>
-      <c r="C193" s="30"/>
-      <c r="D193" s="30"/>
-      <c r="E193" s="30"/>
-      <c r="F193" s="30"/>
-      <c r="G193" s="30"/>
-      <c r="H193" s="30"/>
-      <c r="I193" s="30"/>
-      <c r="J193" s="30"/>
-      <c r="K193" s="30"/>
+      <c r="A193" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="B193" s="28"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
+      <c r="F193" s="28"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="194">
       <c r="A194" s="5" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B194" s="6" t="n">
         <v>14</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>38</v>
@@ -10562,33 +10560,33 @@
         <v>0</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="I194" s="16" t="s">
-        <v>813</v>
+        <v>388</v>
+      </c>
+      <c r="I194" s="8" t="s">
+        <v>815</v>
       </c>
       <c r="J194" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K194" s="5" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="195">
       <c r="A195" s="5" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B195" s="6" t="n">
         <v>14</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>30</v>
@@ -10597,108 +10595,108 @@
         <v>0</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>817</v>
-      </c>
-      <c r="I195" s="16" t="s">
-        <v>818</v>
+        <v>819</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>820</v>
       </c>
       <c r="J195" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K195" s="5" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="196">
       <c r="A196" s="8" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E196" s="11" t="n">
         <v>0</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G196" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H196" s="8" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="J196" s="22" t="n">
+        <v>388</v>
+      </c>
+      <c r="J196" s="20" t="n">
         <v>0</v>
       </c>
       <c r="K196" s="8" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="197">
       <c r="A197" s="8" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E197" s="11" t="n">
         <v>0</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G197" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H197" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I197" s="8" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="J197" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.95" outlineLevel="0" r="198">
-      <c r="A198" s="31" t="s">
-        <v>827</v>
-      </c>
-      <c r="B198" s="31"/>
-      <c r="C198" s="31"/>
-      <c r="D198" s="31"/>
-      <c r="E198" s="31"/>
-      <c r="F198" s="31"/>
-      <c r="G198" s="31"/>
-      <c r="H198" s="31"/>
-      <c r="I198" s="31"/>
-      <c r="J198" s="31"/>
-      <c r="K198" s="31"/>
+      <c r="A198" s="29" t="s">
+        <v>829</v>
+      </c>
+      <c r="B198" s="29"/>
+      <c r="C198" s="29"/>
+      <c r="D198" s="29"/>
+      <c r="E198" s="29"/>
+      <c r="F198" s="29"/>
+      <c r="G198" s="29"/>
+      <c r="H198" s="29"/>
+      <c r="I198" s="29"/>
+      <c r="J198" s="29"/>
+      <c r="K198" s="29"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="199">
       <c r="A199" s="1" t="s">
@@ -10737,13 +10735,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="200">
       <c r="A200" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>62</v>
@@ -10752,33 +10750,33 @@
         <v>0</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J200" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K200" s="5" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="201">
       <c r="A201" s="10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D201" s="8" t="s">
         <v>38</v>
@@ -10787,33 +10785,33 @@
         <v>1</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G201" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H201" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I201" s="8" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="J201" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K201" s="8" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="202">
       <c r="A202" s="5" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C202" s="15" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>66</v>
@@ -10822,143 +10820,143 @@
         <v>0</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I202" s="8" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="J202" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K202" s="5" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="203">
       <c r="A203" s="5" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E203" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F203" s="16" t="s">
-        <v>839</v>
+      <c r="F203" s="8" t="s">
+        <v>841</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="J203" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K203" s="5" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="204">
       <c r="A204" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E204" s="11" t="n">
         <v>0</v>
       </c>
       <c r="F204" s="8" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I204" s="8" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="J204" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K204" s="8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="205">
       <c r="A205" s="8" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E205" s="11" t="n">
         <v>0</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="G205" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H205" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I205" s="8" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="J205" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K205" s="8" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="206">
-      <c r="A206" s="32" t="s">
-        <v>853</v>
-      </c>
-      <c r="B206" s="32"/>
-      <c r="C206" s="32"/>
-      <c r="D206" s="32"/>
-      <c r="E206" s="32"/>
-      <c r="F206" s="32"/>
-      <c r="G206" s="32"/>
-      <c r="H206" s="32"/>
-      <c r="I206" s="32"/>
-      <c r="J206" s="32"/>
-      <c r="K206" s="32"/>
+      <c r="A206" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="B206" s="30"/>
+      <c r="C206" s="30"/>
+      <c r="D206" s="30"/>
+      <c r="E206" s="30"/>
+      <c r="F206" s="30"/>
+      <c r="G206" s="30"/>
+      <c r="H206" s="30"/>
+      <c r="I206" s="30"/>
+      <c r="J206" s="30"/>
+      <c r="K206" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">

--- a/sits/msit_kzinti.xlsx
+++ b/sits/msit_kzinti.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="861">
   <si>
     <t>Designation</t>
   </si>
@@ -3417,6 +3417,58 @@
     <t>See (433.41), (441.0), and (510.3)</t>
   </si>
   <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>R1.01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">36(12)PP</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">/
+18(6)P</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="MS Gothic"/>
+        <charset val="1"/>
+        <family val="3"/>
+        <sz val="9"/>
+      </rPr>
+      <t xml:space="preserve">◆</t>
+    </r>
+  </si>
+  <si>
+    <t>SB(1)</t>
+  </si>
+  <si>
+    <t>From BATS: 30+6 From STB: 20+6</t>
+  </si>
+  <si>
+    <t>Upgrade Only</t>
+  </si>
+  <si>
+    <t>Starbase. See EW Chart. See (433.41), (441.0), and (510.3). Module
+Limits 4FTM+2PFM.</t>
+  </si>
+  <si>
     <t>MB (ND)</t>
   </si>
   <si>
@@ -3551,9 +3603,6 @@
   </si>
   <si>
     <t>From BATS: 12+ftrs From BS: 15+ftrs</t>
-  </si>
-  <si>
-    <t>Upgrade Only</t>
   </si>
   <si>
     <t>Sector Base; see EW chart.</t>
@@ -3706,9 +3755,6 @@
       </rPr>
       <t xml:space="preserve">◆</t>
     </r>
-  </si>
-  <si>
-    <t>SB(1)</t>
   </si>
   <si>
     <t>From SB: 24
@@ -4268,10 +4314,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K207"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E16" activeCellId="0" pane="topLeft" sqref="E16"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A176" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="H181" activeCellId="0" pane="topLeft" sqref="H181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -10108,345 +10154,345 @@
         <v>761</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="181">
-      <c r="A181" s="8" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32" outlineLevel="0" r="181">
+      <c r="A181" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="B181" s="13" t="n">
-        <v>24</v>
+      <c r="B181" s="5" t="s">
+        <v>763</v>
       </c>
       <c r="C181" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="D181" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="D181" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E181" s="11" t="n">
+      <c r="E181" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G181" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="H181" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="I181" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="J181" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="F181" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="G181" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="H181" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I181" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="J181" s="12" t="n">
-        <v>0</v>
-      </c>
       <c r="K181" s="8" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="182">
       <c r="A182" s="8" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B182" s="13" t="n">
         <v>24</v>
       </c>
       <c r="C182" s="23" t="s">
-        <v>766</v>
+        <v>385</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E182" s="11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F182" s="8" t="s">
         <v>544</v>
       </c>
       <c r="G182" s="8" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="H182" s="8" t="s">
         <v>388</v>
       </c>
       <c r="I182" s="8" t="s">
-        <v>388</v>
+        <v>733</v>
       </c>
       <c r="J182" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K182" s="8" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="183">
       <c r="A183" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="B183" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>769</v>
+        <v>772</v>
+      </c>
+      <c r="B183" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C183" s="23" t="s">
+        <v>773</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E183" s="11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F183" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="G183" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="G183" s="8" t="s">
+      <c r="H183" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H183" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="I183" s="8" t="s">
-        <v>771</v>
+        <v>388</v>
       </c>
       <c r="J183" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K183" s="8" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="184">
-      <c r="A184" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="B184" s="5" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="184">
+      <c r="A184" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B184" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E184" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H184" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I184" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="J184" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="185">
+      <c r="A185" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C185" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D185" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="E184" s="7" t="n">
+      <c r="E185" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F184" s="5" t="s">
+      <c r="F185" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="G184" s="5" t="s">
+      <c r="G185" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H184" s="5" t="s">
+      <c r="H185" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="I184" s="5" t="s">
-        <v>774</v>
-      </c>
-      <c r="J184" s="9" t="n">
+      <c r="I185" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="J185" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K184" s="5" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="185">
-      <c r="A185" s="8" t="s">
-        <v>776</v>
-      </c>
-      <c r="B185" s="8" t="s">
+      <c r="K185" s="5" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="186">
+      <c r="A186" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="B186" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C185" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="D185" s="8" t="s">
+      <c r="C186" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="D186" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E185" s="11" t="n">
+      <c r="E186" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="F185" s="8" t="s">
+      <c r="F186" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G185" s="8" t="s">
+      <c r="G186" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H185" s="8" t="s">
+      <c r="H186" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I185" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="J185" s="12" t="n">
+      <c r="I186" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="J186" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="K185" s="8" t="s">
+      <c r="K186" s="8" t="s">
         <v>694</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="186">
-      <c r="A186" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>781</v>
-      </c>
-      <c r="D186" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="187">
+      <c r="A187" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E186" s="7" t="n">
+      <c r="E187" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="F186" s="5" t="s">
+      <c r="F187" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="G186" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="H186" s="8" t="s">
-        <v>783</v>
-      </c>
-      <c r="I186" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="J186" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K186" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="187">
-      <c r="A187" s="8" t="s">
-        <v>786</v>
-      </c>
-      <c r="B187" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>787</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E187" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="G187" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>17</v>
+        <v>789</v>
+      </c>
+      <c r="H187" s="8" t="s">
+        <v>790</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="J187" s="9" t="n">
         <v>0</v>
       </c>
       <c r="K187" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="188">
+        <v>791</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="188">
       <c r="A188" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="B188" s="13" t="n">
+        <v>792</v>
+      </c>
+      <c r="B188" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E188" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G188" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="J188" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" s="5" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="189">
+      <c r="A189" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="B189" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="C188" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="D188" s="8" t="s">
+      <c r="C189" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="D189" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E188" s="11" t="n">
+      <c r="E189" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="F188" s="8" t="s">
+      <c r="F189" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="G188" s="8" t="s">
+      <c r="G189" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H188" s="8" t="s">
+      <c r="H189" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I188" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="J188" s="12" t="n">
+      <c r="I189" s="8" t="s">
+        <v>798</v>
+      </c>
+      <c r="J189" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="K188" s="8" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="189">
-      <c r="A189" s="5" t="s">
-        <v>794</v>
-      </c>
-      <c r="B189" s="6" t="n">
+      <c r="K189" s="8" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="190">
+      <c r="A190" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B190" s="6" t="n">
         <v>202</v>
       </c>
-      <c r="C189" s="21" t="s">
-        <v>795</v>
-      </c>
-      <c r="D189" s="5" t="s">
+      <c r="C190" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="D190" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E189" s="7" t="n">
+      <c r="E190" s="7" t="n">
         <v>10</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="H189" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="I189" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="J189" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K189" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="190">
-      <c r="A190" s="5" t="s">
-        <v>799</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="C190" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="E190" s="7" t="n">
-        <v>9</v>
       </c>
       <c r="F190" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>754</v>
+        <v>802</v>
       </c>
       <c r="H190" s="8" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I190" s="5" t="s">
         <v>388</v>
@@ -10455,33 +10501,33 @@
         <v>0</v>
       </c>
       <c r="K190" s="5" t="s">
-        <v>756</v>
+        <v>804</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="191">
       <c r="A191" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="B191" s="6" t="n">
-        <v>201</v>
-      </c>
-      <c r="C191" s="23" t="s">
-        <v>804</v>
+        <v>805</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>807</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>38</v>
+        <v>564</v>
       </c>
       <c r="E191" s="7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F191" s="5" t="s">
         <v>199</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>805</v>
+        <v>754</v>
       </c>
       <c r="H191" s="8" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="I191" s="5" t="s">
         <v>388</v>
@@ -10490,118 +10536,118 @@
         <v>0</v>
       </c>
       <c r="K191" s="5" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="63.95" outlineLevel="0" r="192">
-      <c r="A192" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="B192" s="16" t="s">
-        <v>808</v>
-      </c>
-      <c r="C192" s="21" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="192">
+      <c r="A192" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="D192" s="16" t="s">
+      <c r="B192" s="6" t="n">
+        <v>201</v>
+      </c>
+      <c r="C192" s="23" t="s">
+        <v>810</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E192" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="H192" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="J192" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" s="5" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="63.95" outlineLevel="0" r="193">
+      <c r="A193" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="B193" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="C193" s="21" t="s">
+        <v>814</v>
+      </c>
+      <c r="D193" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E192" s="18" t="n">
+      <c r="E193" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F192" s="16" t="s">
+      <c r="F193" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="G192" s="16" t="s">
-        <v>782</v>
-      </c>
-      <c r="H192" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="I192" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="J192" s="19" t="n">
+      <c r="G193" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="H193" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="I193" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="J193" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="K192" s="16" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="193">
-      <c r="A193" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="B193" s="28"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
-      <c r="E193" s="28"/>
-      <c r="F193" s="28"/>
-      <c r="G193" s="28"/>
-      <c r="H193" s="28"/>
-      <c r="I193" s="28"/>
-      <c r="J193" s="28"/>
-      <c r="K193" s="28"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="194">
-      <c r="A194" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="B194" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>814</v>
-      </c>
-      <c r="D194" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E194" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="G194" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="I194" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="J194" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K194" s="5" t="s">
+      <c r="K193" s="16" t="s">
         <v>816</v>
       </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="194">
+      <c r="A194" s="28" t="s">
+        <v>817</v>
+      </c>
+      <c r="B194" s="28"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="28"/>
+      <c r="E194" s="28"/>
+      <c r="F194" s="28"/>
+      <c r="G194" s="28"/>
+      <c r="H194" s="28"/>
+      <c r="I194" s="28"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="195">
       <c r="A195" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B195" s="6" t="n">
         <v>14</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E195" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>491</v>
+        <v>687</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>388</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>819</v>
+        <v>388</v>
       </c>
       <c r="I195" s="8" t="s">
         <v>820</v>
@@ -10613,50 +10659,50 @@
         <v>821</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="196">
-      <c r="A196" s="8" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="196">
+      <c r="A196" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="C196" s="8" t="s">
+      <c r="B196" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="C196" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="D196" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="E196" s="11" t="n">
+      <c r="D196" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E196" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F196" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G196" s="8" t="s">
+      <c r="F196" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="G196" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H196" s="8" t="s">
+      <c r="H196" s="5" t="s">
         <v>824</v>
       </c>
       <c r="I196" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="J196" s="20" t="n">
+        <v>825</v>
+      </c>
+      <c r="J196" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K196" s="8" t="s">
-        <v>825</v>
+      <c r="K196" s="5" t="s">
+        <v>826</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="197">
       <c r="A197" s="8" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>691</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>385</v>
+        <v>828</v>
       </c>
       <c r="D197" s="8" t="s">
         <v>543</v>
@@ -10671,191 +10717,191 @@
         <v>388</v>
       </c>
       <c r="H197" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="I197" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="I197" s="8" t="s">
-        <v>827</v>
-      </c>
-      <c r="J197" s="12" t="n">
+      <c r="J197" s="20" t="n">
         <v>0</v>
       </c>
       <c r="K197" s="8" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.95" outlineLevel="0" r="198">
-      <c r="A198" s="29" t="s">
-        <v>829</v>
-      </c>
-      <c r="B198" s="29"/>
-      <c r="C198" s="29"/>
-      <c r="D198" s="29"/>
-      <c r="E198" s="29"/>
-      <c r="F198" s="29"/>
-      <c r="G198" s="29"/>
-      <c r="H198" s="29"/>
-      <c r="I198" s="29"/>
-      <c r="J198" s="29"/>
-      <c r="K198" s="29"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="199">
-      <c r="A199" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="198">
+      <c r="A198" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E198" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="F198" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I198" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="J198" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" s="8" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.95" outlineLevel="0" r="199">
+      <c r="A199" s="29" t="s">
+        <v>834</v>
+      </c>
+      <c r="B199" s="29"/>
+      <c r="C199" s="29"/>
+      <c r="D199" s="29"/>
+      <c r="E199" s="29"/>
+      <c r="F199" s="29"/>
+      <c r="G199" s="29"/>
+      <c r="H199" s="29"/>
+      <c r="I199" s="29"/>
+      <c r="J199" s="29"/>
+      <c r="K199" s="29"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="32.1" outlineLevel="0" r="200">
+      <c r="A200" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F200" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G200" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I199" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J199" s="1" t="s">
+      <c r="J200" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K199" s="1" t="s">
+      <c r="K200" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="200">
-      <c r="A200" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="B200" s="5" t="s">
-        <v>831</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="D200" s="5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="201">
+      <c r="A201" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="D201" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E200" s="7" t="n">
+      <c r="E201" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="F200" s="5" t="s">
+      <c r="F201" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="G200" s="5" t="s">
+      <c r="G201" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="H200" s="5" t="s">
+      <c r="H201" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="I200" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="J200" s="9" t="n">
+      <c r="I201" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="J201" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="K200" s="5" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="201">
-      <c r="A201" s="10" t="s">
-        <v>833</v>
-      </c>
-      <c r="B201" s="8" t="s">
+      <c r="K201" s="5" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="202">
+      <c r="A202" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="B202" s="8" t="s">
         <v>691</v>
       </c>
-      <c r="C201" s="10" t="s">
-        <v>833</v>
-      </c>
-      <c r="D201" s="8" t="s">
+      <c r="C202" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D202" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E201" s="11" t="n">
+      <c r="E202" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="F201" s="8" t="s">
+      <c r="F202" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G201" s="8" t="s">
+      <c r="G202" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="H201" s="8" t="s">
+      <c r="H202" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="I201" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="J201" s="12" t="n">
+      <c r="I202" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="J202" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="K201" s="8" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="202">
-      <c r="A202" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>836</v>
-      </c>
-      <c r="D202" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E202" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F202" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="G202" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="H202" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="I202" s="8" t="s">
-        <v>837</v>
-      </c>
-      <c r="J202" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K202" s="5" t="s">
-        <v>838</v>
+      <c r="K202" s="8" t="s">
+        <v>840</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="203">
       <c r="A203" s="5" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="C203" s="14" t="s">
-        <v>840</v>
+      <c r="C203" s="15" t="s">
+        <v>841</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="E203" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>841</v>
+        <v>66</v>
+      </c>
+      <c r="E203" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>416</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>388</v>
@@ -10863,7 +10909,7 @@
       <c r="H203" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="I203" s="5" t="s">
+      <c r="I203" s="8" t="s">
         <v>842</v>
       </c>
       <c r="J203" s="9" t="n">
@@ -10873,47 +10919,47 @@
         <v>843</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="204">
-      <c r="A204" s="8" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="204">
+      <c r="A204" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C204" s="14" t="s">
         <v>845</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="D204" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E204" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F204" s="8" t="s">
         <v>846</v>
       </c>
-      <c r="D204" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="E204" s="11" t="n">
+      <c r="G204" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="J204" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="F204" s="8" t="s">
-        <v>847</v>
-      </c>
-      <c r="G204" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="H204" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="I204" s="8" t="s">
+      <c r="K204" s="5" t="s">
         <v>848</v>
-      </c>
-      <c r="J204" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K204" s="8" t="s">
-        <v>849</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="205">
       <c r="A205" s="8" t="s">
+        <v>849</v>
+      </c>
+      <c r="B205" s="8" t="s">
         <v>850</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>845</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>851</v>
@@ -10944,19 +10990,54 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="206">
-      <c r="A206" s="30" t="s">
+      <c r="A206" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="B206" s="30"/>
-      <c r="C206" s="30"/>
-      <c r="D206" s="30"/>
-      <c r="E206" s="30"/>
-      <c r="F206" s="30"/>
-      <c r="G206" s="30"/>
-      <c r="H206" s="30"/>
-      <c r="I206" s="30"/>
-      <c r="J206" s="30"/>
-      <c r="K206" s="30"/>
+      <c r="B206" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>856</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="E206" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="H206" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I206" s="8" t="s">
+        <v>858</v>
+      </c>
+      <c r="J206" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" s="8" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12" outlineLevel="0" r="207">
+      <c r="A207" s="30" t="s">
+        <v>860</v>
+      </c>
+      <c r="B207" s="30"/>
+      <c r="C207" s="30"/>
+      <c r="D207" s="30"/>
+      <c r="E207" s="30"/>
+      <c r="F207" s="30"/>
+      <c r="G207" s="30"/>
+      <c r="H207" s="30"/>
+      <c r="I207" s="30"/>
+      <c r="J207" s="30"/>
+      <c r="K207" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -10980,9 +11061,9 @@
     <mergeCell ref="A162:K162"/>
     <mergeCell ref="A172:K172"/>
     <mergeCell ref="A178:K178"/>
-    <mergeCell ref="A193:K193"/>
-    <mergeCell ref="A198:K198"/>
-    <mergeCell ref="A206:K206"/>
+    <mergeCell ref="A194:K194"/>
+    <mergeCell ref="A199:K199"/>
+    <mergeCell ref="A207:K207"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/sits/msit_kzinti.xlsx
+++ b/sits/msit_kzinti.xlsx
@@ -284,7 +284,7 @@
     <t>BCH HEAVY BATTLECRUISER</t>
   </si>
   <si>
-    <t>CV (CVS)</t>
+    <t>CV</t>
   </si>
   <si>
     <t>10(6)/5(3)</t>
@@ -4316,8 +4316,8 @@
   </sheetPr>
   <dimension ref="A1:K207"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A176" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H181" activeCellId="0" pane="topLeft" sqref="H181"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A3" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A19" activeCellId="0" pane="topLeft" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
